--- a/pred_ohlcv/54/2019-10-15 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 LBA ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>11.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2745.7818</v>
+        <v>3482.6087</v>
       </c>
       <c r="G2" t="n">
-        <v>12.10500000000001</v>
+        <v>12.10666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1129.9435</v>
+        <v>2745.7818</v>
       </c>
       <c r="G3" t="n">
-        <v>12.10333333333334</v>
+        <v>12.10500000000001</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>9088.9107</v>
+        <v>1129.9435</v>
       </c>
       <c r="G4" t="n">
-        <v>12.1</v>
+        <v>12.10333333333334</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>11.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1739.1304</v>
+        <v>9088.9107</v>
       </c>
       <c r="G5" t="n">
-        <v>12.09833333333334</v>
+        <v>12.1</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1554.715</v>
+        <v>1739.1304</v>
       </c>
       <c r="G6" t="n">
-        <v>12.095</v>
+        <v>12.09833333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>11.9</v>
       </c>
       <c r="F7" t="n">
-        <v>1733.572</v>
+        <v>1554.715</v>
       </c>
       <c r="G7" t="n">
-        <v>12.09</v>
+        <v>12.095</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>11.9</v>
       </c>
       <c r="F8" t="n">
-        <v>7604.1548</v>
+        <v>1733.572</v>
       </c>
       <c r="G8" t="n">
-        <v>12.085</v>
+        <v>12.09</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>112008.683</v>
+        <v>7604.1548</v>
       </c>
       <c r="G9" t="n">
-        <v>12.08333333333333</v>
+        <v>12.085</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C10" t="n">
         <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
         <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>47768.8099</v>
+        <v>112008.683</v>
       </c>
       <c r="G10" t="n">
-        <v>12.08166666666667</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C11" t="n">
         <v>12.1</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E11" t="n">
         <v>12.1</v>
       </c>
       <c r="F11" t="n">
-        <v>25264.9738</v>
+        <v>47768.8099</v>
       </c>
       <c r="G11" t="n">
-        <v>12.08</v>
+        <v>12.08166666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F12" t="n">
-        <v>70700.73239999999</v>
+        <v>25264.9738</v>
       </c>
       <c r="G12" t="n">
-        <v>12.08333333333333</v>
+        <v>12.08</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D13" t="n">
         <v>12.4</v>
       </c>
       <c r="E13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F13" t="n">
-        <v>235617.2999</v>
+        <v>70700.73239999999</v>
       </c>
       <c r="G13" t="n">
-        <v>12.085</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D14" t="n">
         <v>12.4</v>
       </c>
       <c r="E14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F14" t="n">
-        <v>55027.5522</v>
+        <v>235617.2999</v>
       </c>
       <c r="G14" t="n">
-        <v>12.08833333333333</v>
+        <v>12.085</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -752,18 +796,21 @@
         <v>12.4</v>
       </c>
       <c r="D15" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E15" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F15" t="n">
-        <v>90357.24980000001</v>
+        <v>55027.5522</v>
       </c>
       <c r="G15" t="n">
-        <v>12.09333333333333</v>
+        <v>12.08833333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D16" t="n">
         <v>12.5</v>
       </c>
       <c r="E16" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F16" t="n">
-        <v>48800</v>
+        <v>90357.24980000001</v>
       </c>
       <c r="G16" t="n">
-        <v>12.09999999999999</v>
+        <v>12.09333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>33539.0294</v>
+        <v>48800</v>
       </c>
       <c r="G17" t="n">
-        <v>12.10499999999999</v>
+        <v>12.09999999999999</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,13 +889,16 @@
         <v>12.5</v>
       </c>
       <c r="F18" t="n">
-        <v>41546.443</v>
+        <v>33539.0294</v>
       </c>
       <c r="G18" t="n">
-        <v>12.10833333333333</v>
+        <v>12.10499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -853,22 +909,25 @@
         <v>12.5</v>
       </c>
       <c r="C19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D19" t="n">
         <v>12.5</v>
       </c>
       <c r="E19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>9802.4967</v>
+        <v>41546.443</v>
       </c>
       <c r="G19" t="n">
-        <v>12.11333333333333</v>
+        <v>12.10833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +935,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C20" t="n">
         <v>12.4</v>
       </c>
       <c r="D20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E20" t="n">
         <v>12.4</v>
       </c>
       <c r="F20" t="n">
-        <v>11682.1209</v>
+        <v>9802.4967</v>
       </c>
       <c r="G20" t="n">
-        <v>12.11833333333333</v>
+        <v>12.11333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F21" t="n">
-        <v>81130.50750000001</v>
+        <v>11682.1209</v>
       </c>
       <c r="G21" t="n">
-        <v>12.12499999999999</v>
+        <v>12.11833333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F22" t="n">
-        <v>84079.7335</v>
+        <v>81130.50750000001</v>
       </c>
       <c r="G22" t="n">
-        <v>12.12833333333332</v>
+        <v>12.12499999999999</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>12.4</v>
       </c>
       <c r="F23" t="n">
-        <v>33400</v>
+        <v>84079.7335</v>
       </c>
       <c r="G23" t="n">
-        <v>12.13333333333332</v>
+        <v>12.12833333333332</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>12.4</v>
       </c>
       <c r="F24" t="n">
-        <v>28842.8294</v>
+        <v>33400</v>
       </c>
       <c r="G24" t="n">
-        <v>12.13833333333332</v>
+        <v>12.13333333333332</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>12.4</v>
       </c>
       <c r="F25" t="n">
-        <v>33450</v>
+        <v>28842.8294</v>
       </c>
       <c r="G25" t="n">
-        <v>12.14333333333332</v>
+        <v>12.13833333333332</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>12.4</v>
       </c>
       <c r="F26" t="n">
-        <v>33460</v>
+        <v>33450</v>
       </c>
       <c r="G26" t="n">
-        <v>12.14833333333332</v>
+        <v>12.14333333333332</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>33460</v>
       </c>
       <c r="G27" t="n">
-        <v>12.15333333333332</v>
+        <v>12.14833333333332</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>12.4</v>
       </c>
       <c r="F28" t="n">
-        <v>31704.6774</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>12.15833333333332</v>
+        <v>12.15333333333332</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F29" t="n">
-        <v>71962.439</v>
+        <v>31704.6774</v>
       </c>
       <c r="G29" t="n">
-        <v>12.16166666666665</v>
+        <v>12.15833333333332</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>71962.439</v>
       </c>
       <c r="G30" t="n">
-        <v>12.16499999999998</v>
+        <v>12.16166666666665</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>12.3</v>
       </c>
       <c r="C31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E31" t="n">
         <v>12.3</v>
       </c>
       <c r="F31" t="n">
-        <v>4587.561</v>
+        <v>250</v>
       </c>
       <c r="G31" t="n">
-        <v>12.16833333333332</v>
+        <v>12.16499999999998</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C32" t="n">
         <v>12.4</v>
@@ -1197,15 +1292,18 @@
         <v>12.4</v>
       </c>
       <c r="E32" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>4587.561</v>
       </c>
       <c r="G32" t="n">
-        <v>12.17166666666665</v>
+        <v>12.16833333333332</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>12.4</v>
       </c>
       <c r="C33" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D33" t="n">
         <v>12.4</v>
       </c>
       <c r="E33" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F33" t="n">
-        <v>30100</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17166666666665</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C34" t="n">
         <v>12.3</v>
       </c>
       <c r="D34" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E34" t="n">
         <v>12.3</v>
       </c>
       <c r="F34" t="n">
-        <v>243.9024</v>
+        <v>30100</v>
       </c>
       <c r="G34" t="n">
-        <v>12.17666666666665</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,7 +1370,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C35" t="n">
         <v>12.3</v>
@@ -1275,15 +1379,18 @@
         <v>12.3</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F35" t="n">
-        <v>825443.8974</v>
+        <v>243.9024</v>
       </c>
       <c r="G35" t="n">
-        <v>12.17833333333331</v>
+        <v>12.17666666666665</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E36" t="n">
         <v>12.1</v>
       </c>
       <c r="F36" t="n">
-        <v>19281.4446</v>
+        <v>825443.8974</v>
       </c>
       <c r="G36" t="n">
-        <v>12.17666666666664</v>
+        <v>12.17833333333331</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>63395.5639</v>
+        <v>19281.4446</v>
       </c>
       <c r="G37" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17666666666664</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>2790</v>
+        <v>63395.5639</v>
       </c>
       <c r="G38" t="n">
         <v>12.17333333333331</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>10026.2809</v>
+        <v>2790</v>
       </c>
       <c r="G39" t="n">
         <v>12.17333333333331</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E40" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>74210.8878</v>
+        <v>10026.2809</v>
       </c>
       <c r="G40" t="n">
-        <v>12.16999999999998</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D41" t="n">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F41" t="n">
-        <v>62340</v>
+        <v>74210.8878</v>
       </c>
       <c r="G41" t="n">
-        <v>12.16833333333331</v>
+        <v>12.16999999999998</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1454,18 +1579,21 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>121438.7401</v>
+        <v>62340</v>
       </c>
       <c r="G42" t="n">
-        <v>12.16666666666664</v>
+        <v>12.16833333333331</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
         <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>30521.702</v>
+        <v>121438.7401</v>
       </c>
       <c r="G43" t="n">
         <v>12.16666666666664</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C44" t="n">
         <v>12.1</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E44" t="n">
         <v>12.1</v>
       </c>
       <c r="F44" t="n">
-        <v>22343.2627</v>
+        <v>30521.702</v>
       </c>
       <c r="G44" t="n">
         <v>12.16666666666664</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C45" t="n">
         <v>12.1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
         <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>6530.7722</v>
+        <v>22343.2627</v>
       </c>
       <c r="G45" t="n">
-        <v>12.16499999999997</v>
+        <v>12.16666666666664</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>4490.1809</v>
+        <v>6530.7722</v>
       </c>
       <c r="G46" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>12.1</v>
       </c>
       <c r="F47" t="n">
-        <v>2179.6932</v>
+        <v>4490.1809</v>
       </c>
       <c r="G47" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,15 +1756,18 @@
         <v>12.1</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F48" t="n">
-        <v>11839.31</v>
+        <v>2179.6932</v>
       </c>
       <c r="G48" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,15 +1785,18 @@
         <v>12.1</v>
       </c>
       <c r="E49" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F49" t="n">
-        <v>5356.747</v>
+        <v>11839.31</v>
       </c>
       <c r="G49" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1665,15 +1814,18 @@
         <v>12.1</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F50" t="n">
-        <v>12103.4266</v>
+        <v>5356.747</v>
       </c>
       <c r="G50" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1691,15 +1843,18 @@
         <v>12.1</v>
       </c>
       <c r="E51" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F51" t="n">
-        <v>5694.8996</v>
+        <v>12103.4266</v>
       </c>
       <c r="G51" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>12.1</v>
       </c>
       <c r="F52" t="n">
-        <v>1715.5737</v>
+        <v>5694.8996</v>
       </c>
       <c r="G52" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>12.1</v>
       </c>
       <c r="F53" t="n">
-        <v>1637.6144</v>
+        <v>1715.5737</v>
       </c>
       <c r="G53" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>12.1</v>
       </c>
       <c r="F54" t="n">
-        <v>845.7306</v>
+        <v>1637.6144</v>
       </c>
       <c r="G54" t="n">
         <v>12.16499999999997</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>12.1</v>
       </c>
       <c r="F55" t="n">
-        <v>462</v>
+        <v>845.7306</v>
       </c>
       <c r="G55" t="n">
-        <v>12.16666666666664</v>
+        <v>12.16499999999997</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>12.1</v>
       </c>
       <c r="F56" t="n">
-        <v>980</v>
+        <v>462</v>
       </c>
       <c r="G56" t="n">
-        <v>12.16833333333331</v>
+        <v>12.16666666666664</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>12.1</v>
       </c>
       <c r="F57" t="n">
-        <v>370</v>
+        <v>980</v>
       </c>
       <c r="G57" t="n">
-        <v>12.17166666666664</v>
+        <v>12.16833333333331</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>50000</v>
+        <v>370</v>
       </c>
       <c r="G58" t="n">
-        <v>12.17333333333331</v>
+        <v>12.17166666666664</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>12</v>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D59" t="n">
         <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F59" t="n">
-        <v>35207.8</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="n">
         <v>12.17333333333331</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
         <v>11.9</v>
       </c>
       <c r="D60" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
         <v>11.9</v>
       </c>
       <c r="F60" t="n">
-        <v>28800</v>
+        <v>35207.8</v>
       </c>
       <c r="G60" t="n">
         <v>12.17333333333331</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>12080</v>
+        <v>28800</v>
       </c>
       <c r="G61" t="n">
-        <v>12.17499999999998</v>
+        <v>12.17333333333331</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
         <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>5490</v>
+        <v>12080</v>
       </c>
       <c r="G62" t="n">
         <v>12.17499999999998</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
         <v>11.9</v>
       </c>
       <c r="D63" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
         <v>11.9</v>
       </c>
       <c r="F63" t="n">
-        <v>25000</v>
+        <v>5490</v>
       </c>
       <c r="G63" t="n">
         <v>12.17499999999998</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="G64" t="n">
-        <v>12.17666666666664</v>
+        <v>12.17499999999998</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>105000</v>
+        <v>24800</v>
       </c>
       <c r="G65" t="n">
-        <v>12.17999999999998</v>
+        <v>12.17666666666664</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
         <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>40000</v>
+        <v>105000</v>
       </c>
       <c r="G66" t="n">
-        <v>12.18166666666665</v>
+        <v>12.17999999999998</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
         <v>12</v>
@@ -2107,15 +2307,18 @@
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>142334.1884</v>
+        <v>40000</v>
       </c>
       <c r="G67" t="n">
-        <v>12.18333333333331</v>
+        <v>12.18166666666665</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
@@ -2133,15 +2336,18 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F68" t="n">
-        <v>6851.7593</v>
+        <v>142334.1884</v>
       </c>
       <c r="G68" t="n">
-        <v>12.18499999999998</v>
+        <v>12.18333333333331</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>6851.7593</v>
       </c>
       <c r="G69" t="n">
-        <v>12.18166666666665</v>
+        <v>12.18499999999998</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F70" t="n">
-        <v>17935.4196</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>12.17999999999998</v>
+        <v>12.18166666666665</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>16298.6776</v>
+        <v>17935.4196</v>
       </c>
       <c r="G71" t="n">
-        <v>12.17833333333331</v>
+        <v>12.17999999999998</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F72" t="n">
-        <v>16709.4957</v>
+        <v>16298.6776</v>
       </c>
       <c r="G72" t="n">
-        <v>12.16999999999998</v>
+        <v>12.17833333333331</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E73" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F73" t="n">
-        <v>48000</v>
+        <v>16709.4957</v>
       </c>
       <c r="G73" t="n">
-        <v>12.16166666666664</v>
+        <v>12.16999999999998</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>11.8</v>
       </c>
       <c r="F74" t="n">
-        <v>13400</v>
+        <v>48000</v>
       </c>
       <c r="G74" t="n">
-        <v>12.15166666666664</v>
+        <v>12.16166666666664</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>11.8</v>
       </c>
       <c r="F75" t="n">
-        <v>6187.6271</v>
+        <v>13400</v>
       </c>
       <c r="G75" t="n">
-        <v>12.14166666666664</v>
+        <v>12.15166666666664</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>11.8</v>
       </c>
       <c r="F76" t="n">
-        <v>31844.6822</v>
+        <v>6187.6271</v>
       </c>
       <c r="G76" t="n">
-        <v>12.12999999999998</v>
+        <v>12.14166666666664</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F77" t="n">
-        <v>30806.7902</v>
+        <v>31844.6822</v>
       </c>
       <c r="G77" t="n">
-        <v>12.11666666666664</v>
+        <v>12.12999999999998</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E78" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F78" t="n">
-        <v>2790.7651</v>
+        <v>30806.7902</v>
       </c>
       <c r="G78" t="n">
-        <v>12.10499999999998</v>
+        <v>12.11666666666664</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>11.8</v>
       </c>
       <c r="F79" t="n">
-        <v>16740</v>
+        <v>2790.7651</v>
       </c>
       <c r="G79" t="n">
-        <v>12.09499999999998</v>
+        <v>12.10499999999998</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>11.8</v>
       </c>
       <c r="F80" t="n">
-        <v>19530</v>
+        <v>16740</v>
       </c>
       <c r="G80" t="n">
-        <v>12.08499999999998</v>
+        <v>12.09499999999998</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>11.8</v>
       </c>
       <c r="C81" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D81" t="n">
         <v>11.8</v>
       </c>
       <c r="E81" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F81" t="n">
-        <v>55013.5528</v>
+        <v>19530</v>
       </c>
       <c r="G81" t="n">
-        <v>12.07166666666664</v>
+        <v>12.08499999999998</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,21 +2736,24 @@
         <v>11.8</v>
       </c>
       <c r="C82" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D82" t="n">
         <v>11.8</v>
       </c>
       <c r="E82" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F82" t="n">
-        <v>11090</v>
+        <v>55013.5528</v>
       </c>
       <c r="G82" t="n">
-        <v>12.06166666666664</v>
+        <v>12.07166666666664</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>11.8</v>
       </c>
       <c r="F83" t="n">
-        <v>16640</v>
+        <v>11090</v>
       </c>
       <c r="G83" t="n">
-        <v>12.05166666666664</v>
+        <v>12.06166666666664</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>11.8</v>
       </c>
       <c r="F84" t="n">
-        <v>2770</v>
+        <v>16640</v>
       </c>
       <c r="G84" t="n">
-        <v>12.04166666666664</v>
+        <v>12.05166666666664</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,7 +2820,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C85" t="n">
         <v>11.8</v>
@@ -2575,15 +2829,18 @@
         <v>11.8</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F85" t="n">
-        <v>5653.4166</v>
+        <v>2770</v>
       </c>
       <c r="G85" t="n">
-        <v>12.03166666666664</v>
+        <v>12.04166666666664</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C86" t="n">
         <v>11.8</v>
@@ -2601,15 +2858,18 @@
         <v>11.8</v>
       </c>
       <c r="E86" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2780</v>
+        <v>5653.4166</v>
       </c>
       <c r="G86" t="n">
-        <v>12.02166666666664</v>
+        <v>12.03166666666664</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E87" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F87" t="n">
-        <v>100000</v>
+        <v>2780</v>
       </c>
       <c r="G87" t="n">
-        <v>12.00999999999997</v>
+        <v>12.02166666666664</v>
       </c>
       <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>11.7</v>
       </c>
       <c r="C88" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D88" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E88" t="n">
         <v>11.7</v>
       </c>
       <c r="F88" t="n">
-        <v>20448.5635</v>
+        <v>100000</v>
       </c>
       <c r="G88" t="n">
-        <v>11.99999999999998</v>
+        <v>12.00999999999997</v>
       </c>
       <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>11.7</v>
       </c>
       <c r="F89" t="n">
-        <v>24690</v>
+        <v>20448.5635</v>
       </c>
       <c r="G89" t="n">
-        <v>11.99166666666664</v>
+        <v>11.99999999999998</v>
       </c>
       <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>11.7</v>
       </c>
       <c r="C90" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D90" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E90" t="n">
         <v>11.7</v>
       </c>
       <c r="F90" t="n">
-        <v>23898.3675</v>
+        <v>24690</v>
       </c>
       <c r="G90" t="n">
-        <v>11.98166666666664</v>
+        <v>11.99166666666664</v>
       </c>
       <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>11.7</v>
       </c>
       <c r="F91" t="n">
-        <v>18150</v>
+        <v>23898.3675</v>
       </c>
       <c r="G91" t="n">
-        <v>11.96999999999998</v>
+        <v>11.98166666666664</v>
       </c>
       <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E92" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F92" t="n">
-        <v>115054.6802</v>
+        <v>18150</v>
       </c>
       <c r="G92" t="n">
-        <v>11.95999999999998</v>
+        <v>11.96999999999998</v>
       </c>
       <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>11.8</v>
       </c>
       <c r="F93" t="n">
-        <v>21058.4608</v>
+        <v>115054.6802</v>
       </c>
       <c r="G93" t="n">
-        <v>11.95166666666664</v>
+        <v>11.95999999999998</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="C94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="D94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="E94" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="F94" t="n">
-        <v>24600</v>
+        <v>21058.4608</v>
       </c>
       <c r="G94" t="n">
-        <v>11.94166666666665</v>
+        <v>11.95166666666664</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>11.7</v>
       </c>
       <c r="F95" t="n">
-        <v>1682.1374</v>
+        <v>24600</v>
       </c>
       <c r="G95" t="n">
-        <v>11.93166666666665</v>
+        <v>11.94166666666665</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C96" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E96" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F96" t="n">
-        <v>157415.4621</v>
+        <v>1682.1374</v>
       </c>
       <c r="G96" t="n">
-        <v>11.92833333333331</v>
+        <v>11.93166666666665</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C97" t="n">
         <v>11.9</v>
       </c>
       <c r="D97" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F97" t="n">
-        <v>3520</v>
+        <v>157415.4621</v>
       </c>
       <c r="G97" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E98" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F98" t="n">
-        <v>791.4451</v>
+        <v>3520</v>
       </c>
       <c r="G98" t="n">
-        <v>11.92499999999998</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>12</v>
       </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>791.4451</v>
       </c>
       <c r="G99" t="n">
-        <v>11.92333333333331</v>
+        <v>11.92499999999998</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>12</v>
       </c>
       <c r="C100" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
         <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G100" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92333333333331</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D101" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E101" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>86788.3458</v>
+        <v>20000</v>
       </c>
       <c r="G101" t="n">
-        <v>11.92999999999998</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>12.2</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>86788.3458</v>
       </c>
       <c r="G102" t="n">
-        <v>11.93333333333331</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>12.2</v>
       </c>
       <c r="F104" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>11.93666666666665</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>12.2</v>
       </c>
       <c r="F105" t="n">
-        <v>3247.7049</v>
+        <v>14</v>
       </c>
       <c r="G105" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93666666666665</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E106" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>3247.7049</v>
       </c>
       <c r="G106" t="n">
         <v>11.93833333333331</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>12.1</v>
       </c>
       <c r="F107" t="n">
-        <v>72870.3941</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
         <v>11.93833333333331</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>12.1</v>
       </c>
       <c r="F108" t="n">
-        <v>18188.3083</v>
+        <v>72870.3941</v>
       </c>
       <c r="G108" t="n">
         <v>11.93833333333331</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>12.1</v>
       </c>
       <c r="F109" t="n">
-        <v>3453.5809</v>
+        <v>18188.3083</v>
       </c>
       <c r="G109" t="n">
         <v>11.93833333333331</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>12.1</v>
       </c>
       <c r="C110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D110" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E110" t="n">
         <v>12.1</v>
       </c>
       <c r="F110" t="n">
-        <v>2587.6726</v>
+        <v>3453.5809</v>
       </c>
       <c r="G110" t="n">
-        <v>11.93999999999998</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C111" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D111" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E111" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F111" t="n">
-        <v>53215.6471</v>
+        <v>2587.6726</v>
       </c>
       <c r="G111" t="n">
         <v>11.93999999999998</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E112" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>13350.4581</v>
+        <v>53215.6471</v>
       </c>
       <c r="G112" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>12</v>
       </c>
       <c r="F113" t="n">
-        <v>5120</v>
+        <v>13350.4581</v>
       </c>
       <c r="G113" t="n">
-        <v>11.93666666666665</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E114" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>245.6111</v>
+        <v>5120</v>
       </c>
       <c r="G114" t="n">
-        <v>11.93333333333331</v>
+        <v>11.93666666666665</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>11.9</v>
       </c>
       <c r="F115" t="n">
-        <v>2667.2345</v>
+        <v>245.6111</v>
       </c>
       <c r="G115" t="n">
-        <v>11.92999999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F116" t="n">
-        <v>30775.7549</v>
+        <v>2667.2345</v>
       </c>
       <c r="G116" t="n">
-        <v>11.92833333333331</v>
+        <v>11.92999999999998</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>12</v>
       </c>
       <c r="F117" t="n">
-        <v>4340</v>
+        <v>30775.7549</v>
       </c>
       <c r="G117" t="n">
-        <v>11.92666666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E118" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F118" t="n">
-        <v>1152.2975</v>
+        <v>4340</v>
       </c>
       <c r="G118" t="n">
-        <v>11.92833333333331</v>
+        <v>11.92666666666665</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>12.1</v>
       </c>
       <c r="F119" t="n">
-        <v>25997.1234</v>
+        <v>1152.2975</v>
       </c>
       <c r="G119" t="n">
-        <v>11.93166666666665</v>
+        <v>11.92833333333331</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F120" t="n">
-        <v>11642.3995</v>
+        <v>25997.1234</v>
       </c>
       <c r="G120" t="n">
-        <v>11.93333333333331</v>
+        <v>11.93166666666665</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>12</v>
       </c>
       <c r="F121" t="n">
-        <v>2772.3995</v>
+        <v>11642.3995</v>
       </c>
       <c r="G121" t="n">
         <v>11.93333333333331</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>12</v>
       </c>
       <c r="F122" t="n">
-        <v>5895.7924</v>
+        <v>2772.3995</v>
       </c>
       <c r="G122" t="n">
-        <v>11.93499999999998</v>
+        <v>11.93333333333331</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
-        <v>1694.6818</v>
+        <v>5895.7924</v>
       </c>
       <c r="G123" t="n">
-        <v>11.93833333333331</v>
+        <v>11.93499999999998</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>12.1</v>
       </c>
       <c r="F124" t="n">
-        <v>38</v>
+        <v>1694.6818</v>
       </c>
       <c r="G124" t="n">
-        <v>11.93999999999998</v>
+        <v>11.93833333333331</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>12.1</v>
       </c>
       <c r="F125" t="n">
-        <v>9600</v>
+        <v>38</v>
       </c>
       <c r="G125" t="n">
         <v>11.93999999999998</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>12.1</v>
       </c>
       <c r="F126" t="n">
-        <v>14200</v>
+        <v>9600</v>
       </c>
       <c r="G126" t="n">
-        <v>11.94166666666665</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F127" t="n">
-        <v>826</v>
+        <v>14200</v>
       </c>
       <c r="G127" t="n">
         <v>11.94166666666665</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E128" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F128" t="n">
-        <v>6800</v>
+        <v>826</v>
       </c>
       <c r="G128" t="n">
-        <v>11.94333333333332</v>
+        <v>11.94166666666665</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,532 +4108,15 @@
         <v>12.1</v>
       </c>
       <c r="F129" t="n">
-        <v>73000</v>
+        <v>6800</v>
       </c>
       <c r="G129" t="n">
-        <v>11.94666666666665</v>
+        <v>11.94333333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>16400</v>
-      </c>
-      <c r="G130" t="n">
-        <v>11.94833333333332</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4055.0969</v>
-      </c>
-      <c r="G131" t="n">
-        <v>11.94833333333332</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12</v>
-      </c>
-      <c r="F132" t="n">
-        <v>4050</v>
-      </c>
-      <c r="G132" t="n">
-        <v>11.94999999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>25596</v>
-      </c>
-      <c r="G133" t="n">
-        <v>11.95499999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>252</v>
-      </c>
-      <c r="G134" t="n">
-        <v>11.95999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F135" t="n">
-        <v>28200</v>
-      </c>
-      <c r="G135" t="n">
-        <v>11.96499999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F136" t="n">
-        <v>249</v>
-      </c>
-      <c r="G136" t="n">
-        <v>11.96999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F137" t="n">
-        <v>54315.1284</v>
-      </c>
-      <c r="G137" t="n">
-        <v>11.97666666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1878.7213</v>
-      </c>
-      <c r="G138" t="n">
-        <v>11.98333333333332</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>158774.0139</v>
-      </c>
-      <c r="G139" t="n">
-        <v>11.98999999999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>159081.9632</v>
-      </c>
-      <c r="G140" t="n">
-        <v>11.99666666666666</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>15272.3887</v>
-      </c>
-      <c r="G141" t="n">
-        <v>12.00333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3280</v>
-      </c>
-      <c r="G142" t="n">
-        <v>12.00833333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>7550</v>
-      </c>
-      <c r="G143" t="n">
-        <v>12.015</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15100</v>
-      </c>
-      <c r="G144" t="n">
-        <v>12.02166666666666</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F145" t="n">
-        <v>16130</v>
-      </c>
-      <c r="G145" t="n">
-        <v>12.02833333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2860</v>
-      </c>
-      <c r="G146" t="n">
-        <v>12.035</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2860</v>
-      </c>
-      <c r="G147" t="n">
-        <v>12.04333333333333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F148" t="n">
-        <v>4290</v>
-      </c>
-      <c r="G148" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>8580</v>
-      </c>
-      <c r="G149" t="n">
-        <v>12.05666666666667</v>
-      </c>
-      <c r="H149" t="n">
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
